--- a/result.xlsx
+++ b/result.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,41 +502,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20210112</t>
+          <t>20210902</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123520</t>
+          <t>125105</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35703604</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>27000</v>
+          <t>46895403</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>제주본토박이</t>
+          <t>돈풍년</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>34117866</t>
+          <t>133150808</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -546,12 +552,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>20210113</t>
+          <t>20210903</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>20210211</t>
+          <t>20211011</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -563,41 +574,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20210127</t>
+          <t>20210525</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>123303</t>
+          <t>170447</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>73047372</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>27000</v>
+          <t>96409688</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>제주본토박이</t>
+          <t>갓스팀 출장세차</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>34117866</t>
+          <t>168014596</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -607,12 +624,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>20210128</t>
+          <t>20210526</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>20210211</t>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -624,41 +646,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20210115</t>
+          <t>20210802</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>120541</t>
+          <t>121912</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>77013848</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>70000</v>
+          <t>26596246</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>남녕꽃화원</t>
+          <t>푸주옥도남점</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>65511661</t>
+          <t>164842098</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -668,12 +696,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>20210116</t>
+          <t>20210803</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20210211</t>
+          <t>20210911</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -685,41 +718,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20210120</t>
+          <t>20210524</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>152141</t>
+          <t>184235</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86703011</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1000</v>
+          <t>04803702</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>법원행정처_1</t>
+          <t>일출마트</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>173686677</t>
+          <t>170705575</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -729,12 +768,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>20210121</t>
+          <t>20210525</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20210211</t>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -746,41 +790,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20210126</t>
+          <t>20210729</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>092445</t>
+          <t>130429</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24459693</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1000</v>
+          <t>00325307</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>법원행정처_1 인터넷등기소</t>
+          <t>엄블랑호다</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>173686677</t>
+          <t>183121948</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -790,12 +840,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>20210127</t>
+          <t>20210730</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>20210211</t>
+          <t>20210911</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -807,41 +862,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20210223</t>
+          <t>20210727</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>160831</t>
+          <t>145026</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>28820290</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1000</v>
+          <t>56289519</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>법원행정처_4 인터넷등기소</t>
+          <t>신한포장 (주)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>173686263</t>
+          <t>161426350</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -851,12 +912,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>20210224</t>
+          <t>20210728</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>20210311</t>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -868,41 +934,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20210122</t>
+          <t>20210727</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>113828</t>
+          <t>091451</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>73318158</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>50000</v>
+          <t>02457247</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>16000</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>알파제주법원점</t>
+          <t>한국공항공사제주지역본부</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>169509940</t>
+          <t>83832366</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -912,12 +984,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>20210123</t>
+          <t>20210728</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20210211</t>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -929,41 +1006,47 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20210305</t>
+          <t>20210719</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>095041</t>
+          <t>160321</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50303704</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>50000</v>
+          <t>22859536</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>159980</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>백록주유소</t>
+          <t>우정사업본부(우체국)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>159120590</t>
+          <t>83790910</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -973,12 +1056,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>20210306</t>
+          <t>20210720</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>20210411</t>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -990,41 +1078,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20210122</t>
+          <t>20210719</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>111403</t>
+          <t>142048</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23735963</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>200000</v>
+          <t>01176698</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>남녕꽃화원</t>
+          <t>제주에말하다제이엔에스</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>65511661</t>
+          <t>177804332</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1034,12 +1128,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>20210123</t>
+          <t>20210720</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>20210211</t>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1051,41 +1150,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20210224</t>
+          <t>20210719</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>161457</t>
+          <t>092849</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09242660</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>200000</v>
+          <t>47044847</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>남녕꽃화원</t>
+          <t>우정사업본부(우체국)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>65511661</t>
+          <t>83793003</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1095,12 +1200,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>20210225</t>
+          <t>20210721</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20210311</t>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1112,41 +1222,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20210126</t>
+          <t>20210712</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>123400</t>
+          <t>092731</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>57077274</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>30000</v>
+          <t>73636194</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>정직한우명가</t>
+          <t>우정사업본부(우체국)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>180944014</t>
+          <t>83793003</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1156,12 +1272,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>20210127</t>
+          <t>20210714</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>20210211</t>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1173,41 +1294,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>20210127</t>
+          <t>20210716</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>093057</t>
+          <t>082717</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>08692656</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>2100</v>
+          <t>76656303</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22000</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>우정사업본부(우체국)</t>
+          <t>뚜레쥬르 제주이도이동점</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>83793003</t>
+          <t>180001484</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1217,58 +1344,69 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>20210129</t>
+          <t>20210717</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20210211</t>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>400907******0182</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20210202</t>
+          <t>20210216</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>120649</t>
+          <t>123428</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>51856006</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>22000</v>
+          <t>50288984</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22000</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>긴자료코제주시점</t>
+          <t>정박사구제주냉면</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>181399656</t>
+          <t>155558725</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1278,12 +1416,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>20210203</t>
+          <t>20210217</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>20210311</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1295,41 +1438,47 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20210209</t>
+          <t>20210715</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>190855</t>
+          <t>080000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>23970305</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>11300</v>
+          <t>71530793</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>써브웨이제주시청점</t>
+          <t>폴바셋 제주아라DT점</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>170575152</t>
+          <t>181916052</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1339,12 +1488,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210716</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20210311</t>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1356,41 +1510,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20210209</t>
+          <t>20210709</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>092857</t>
+          <t>122009</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>42815800</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>4200</v>
+          <t>11316801</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>31900</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>우정사업본부(우체국)</t>
+          <t>블루메베이글</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>83793003</t>
+          <t>181455216</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1400,12 +1560,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>20210210</t>
+          <t>20210710</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20210311</t>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1417,41 +1582,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>20210223</t>
+          <t>20210706</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>124650</t>
+          <t>123917</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24716633</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>17500</v>
+          <t>63551663</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29300</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>하비마카롱</t>
+          <t>뉴욕버거제주법원점</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>167291446</t>
+          <t>174443632</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1461,12 +1632,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>20210224</t>
+          <t>20210707</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20210311</t>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1478,41 +1654,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>20210223</t>
+          <t>20210705</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>123301</t>
+          <t>173110</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>76766427</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>40000</v>
+          <t>15259427</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>48200</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>시골길이도점</t>
+          <t>네이버파이낸셜(주) 네이버</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>11145191</t>
+          <t>163072581</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1522,12 +1704,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>20210224</t>
+          <t>20210706</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20210311</t>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1539,41 +1726,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>20210305</t>
+          <t>20210624</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>150528</t>
+          <t>135854</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>85264053</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>55000</v>
+          <t>03744141</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65200</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>갓스팀 출장세차</t>
+          <t>아시아나항공(직판)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>168014596</t>
+          <t>50104441</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1583,12 +1776,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>20210306</t>
+          <t>20210628</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20210411</t>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1600,41 +1798,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>20210310</t>
+          <t>20210611</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>125947</t>
+          <t>124108</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>83285540</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>10500</v>
+          <t>28100911</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10500</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>제주제라진통닭</t>
+          <t>하비마카롱</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>171020659</t>
+          <t>167291446</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1644,12 +1848,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>20210311</t>
+          <t>20210612</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>20210411</t>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1661,41 +1870,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>20210319</t>
+          <t>20210609</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>123813</t>
+          <t>130659</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>77267781</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>15000</v>
+          <t>52374406</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3570</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>하비마카롱</t>
+          <t>우정사업본부(우체국)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>167291446</t>
+          <t>83793015</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1705,12 +1920,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>20210320</t>
+          <t>20210610</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>20210411</t>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1722,41 +1942,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>20210322</t>
+          <t>20210609</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>114121</t>
+          <t>120909</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22349140</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>3570</v>
+          <t>10191160</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24500</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>우정사업본부(우체국)</t>
+          <t>바르다김선생이도점</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>83793015</t>
+          <t>179710303</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1766,12 +1992,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>20210323</t>
+          <t>20210610</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>20210411</t>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1783,41 +2014,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>20210329</t>
+          <t>20210607</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>124102</t>
+          <t>123526</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>26870720</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>13000</v>
+          <t>33165641</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35000</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>보해국수</t>
+          <t>정박사구제주냉면</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>164718156</t>
+          <t>155558725</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1827,12 +2064,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>20210330</t>
+          <t>20210608</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>20210511</t>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1844,41 +2086,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>20210430</t>
+          <t>20210604</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>004440</t>
+          <t>175417</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45738229</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>13000</v>
+          <t>95276298</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>CU(씨유)제주제원점</t>
+          <t>한국공항공사제주지역본부</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>117251252</t>
+          <t>83832366</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1888,12 +2136,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>20210503</t>
+          <t>20210605</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20210611</t>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -1905,41 +2158,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>20210401</t>
+          <t>20210603</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>185441</t>
+          <t>080245</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>87420937</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>14900</v>
+          <t>25146612</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>제주제라진통닭</t>
+          <t>한국공항공사제주지역본부</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>171020659</t>
+          <t>83832366</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1949,58 +2208,69 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>20210402</t>
+          <t>20210604</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>20210511</t>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>400907******0182</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20210406</t>
+          <t>20210315</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>102143</t>
+          <t>110615</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>77767156</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>32000</v>
+          <t>62643500</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>예스이십사(주)</t>
+          <t>한국공항공사제주지역본부</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>118354491</t>
+          <t>83832366</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2010,12 +2280,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>20210407</t>
+          <t>20210316</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>20210511</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2027,56 +2302,67 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20210412</t>
+          <t>20210601</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>123453</t>
+          <t>132716</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>41403124</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>11500</v>
+          <t>85099819</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>-47100</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>카페다미</t>
+          <t>(주)티웨이항공</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>180584216</t>
+          <t>132931425</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>20210413</t>
+          <t>20210628</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20210511</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>20210628</t>
         </is>
       </c>
     </row>
@@ -2088,41 +2374,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>20210415</t>
+          <t>20210531</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>201603</t>
+          <t>180051</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94713561</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>14000</v>
+          <t>72730926</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>40200</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>이돈갓시청점</t>
+          <t>이니시스_4 행복공장）</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>155996795</t>
+          <t>172510584</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2132,12 +2424,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>20210416</t>
+          <t>20210601</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20210511</t>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2149,56 +2446,67 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>20210416</t>
+          <t>20210531</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>124223</t>
+          <t>131730</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>01567907</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>28500</v>
+          <t>61876979</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-92200</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>솔트스톤</t>
+          <t>아시아나항공(직판)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>171287673</t>
+          <t>50104441</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>20210417</t>
+          <t>20210602</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>20210511</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>20210602</t>
         </is>
       </c>
     </row>
@@ -2210,32 +2518,38 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>20210421</t>
+          <t>20210531</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>153323</t>
+          <t>131730</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>74288122</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>63200</v>
+          <t>61876979</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92200</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2254,12 +2568,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>20210423</t>
+          <t>20210602</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20210511</t>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2271,41 +2590,47 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>20210520</t>
+          <t>20210528</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>122334</t>
+          <t>175651</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>51578087</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>35000</v>
+          <t>47844636</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4400</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>쿠이데식당</t>
+          <t>신한포장 (주)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>178210980</t>
+          <t>161426350</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2315,12 +2640,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>20210521</t>
+          <t>20210529</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20210611</t>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2332,41 +2662,47 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>20210607</t>
+          <t>20210528</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>123526</t>
+          <t>175650</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>33165641</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>35000</v>
+          <t>43678032</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29480</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>정박사구제주냉면</t>
+          <t>우정사업본부(우체국)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>155558725</t>
+          <t>83793015</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2376,12 +2712,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>20210608</t>
+          <t>20210529</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>20210711</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2393,41 +2734,47 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>20210522</t>
+          <t>20210527</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>104247</t>
+          <t>123536</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>97305149</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>12400</v>
+          <t>29747960</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7500</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>푸드딜라이트제주점</t>
+          <t>커피블라썸</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>179803291</t>
+          <t>154964733</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2437,12 +2784,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>20210523</t>
+          <t>20210528</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>20210611</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2454,41 +2806,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>20210528</t>
+          <t>20210525</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>175651</t>
+          <t>122956</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>47844636</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>4400</v>
+          <t>34130233</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>신한포장 (주)</t>
+          <t>신반점</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>161426350</t>
+          <t>174622214</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2498,12 +2856,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>20210529</t>
+          <t>20210526</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>20210711</t>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2515,41 +2878,47 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20210528</t>
+          <t>20210522</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>175650</t>
+          <t>104247</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>43678032</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>29480</v>
+          <t>97305149</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12400</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>우정사업본부(우체국)</t>
+          <t>푸드딜라이트제주점</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>83793015</t>
+          <t>179803291</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2559,12 +2928,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>20210529</t>
+          <t>20210523</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>20210711</t>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2576,41 +2950,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>20210531</t>
+          <t>20210514</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>180051</t>
+          <t>111136</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>72730926</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>40200</v>
+          <t>67152470</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>이니시스_4 행복공장）</t>
+          <t>법원행정처_4 210514210153003617</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>172510584</t>
+          <t>173686263</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2620,12 +3000,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>20210601</t>
+          <t>20210515</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>20210711</t>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2637,56 +3022,67 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>20210531</t>
+          <t>20210512</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>131730</t>
+          <t>141446</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>61876979</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>-92200</v>
+          <t>13430734</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>아시아나항공(직판)</t>
+          <t>법원행정처_4 인터넷등기소</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>50104441</t>
+          <t>173686263</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>20210602</t>
+          <t>20210513</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>20210611</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>20210602</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2698,41 +3094,47 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>20210531</t>
+          <t>20210512</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>131730</t>
+          <t>141154</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>61876979</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>92200</v>
+          <t>66934027</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>아시아나항공(직판)</t>
+          <t>법원행정처_4 인터넷등기소</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>50104441</t>
+          <t>173686263</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2742,12 +3144,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>20210602</t>
+          <t>20210513</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>20210711</t>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2759,56 +3166,67 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>20210601</t>
+          <t>20210420</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>132716</t>
+          <t>154522</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>85099819</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>-47100</v>
+          <t>54390483</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>(주)티웨이항공</t>
+          <t>한국공항공사제주지역본부</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>132931425</t>
+          <t>83832366</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>20210628</t>
+          <t>20210421</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>20210511</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>20210628</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2820,41 +3238,47 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>20210609</t>
+          <t>20210513</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>120909</t>
+          <t>185912</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10191160</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>24500</v>
+          <t>01239150</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>11500</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>바르다김선생이도점</t>
+          <t>쿠이데식당</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>179710303</t>
+          <t>178210980</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2864,12 +3288,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>20210610</t>
+          <t>20210514</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>20210711</t>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2881,41 +3310,47 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20210621</t>
+          <t>20210503</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>122632</t>
+          <t>095512</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>97207237</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>29000</v>
+          <t>66152270</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1600</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>고래콩물이도점</t>
+          <t>한국공항공사제주지역본부</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>150588385</t>
+          <t>83832366</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2925,12 +3360,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>20210622</t>
+          <t>20210504</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>20210711</t>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2942,41 +3382,47 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>20210624</t>
+          <t>20210430</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>135854</t>
+          <t>075909</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>03744141</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>65200</v>
+          <t>90577449</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>19000</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>아시아나항공(직판)</t>
+          <t>코리아세븐제주삼무파크점</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>50104441</t>
+          <t>137563091</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2986,12 +3432,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>20210628</t>
+          <t>20210502</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>20210711</t>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3003,41 +3454,47 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20210705</t>
+          <t>20210428</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>173110</t>
+          <t>123600</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15259427</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>48200</v>
+          <t>21805566</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>41000</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>네이버파이낸셜(주) 네이버</t>
+          <t>신설오름</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>163072581</t>
+          <t>32093456</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3047,12 +3504,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>20210706</t>
+          <t>20210429</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3064,41 +3526,47 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20210706</t>
+          <t>20210426</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>123917</t>
+          <t>191631</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>63551663</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>29300</v>
+          <t>86623785</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>11300</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>뉴욕버거제주법원점</t>
+          <t>써브웨이제주시청점</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>174443632</t>
+          <t>170575152</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3108,12 +3576,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>20210707</t>
+          <t>20210427</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210511</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3125,41 +3598,47 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20210709</t>
+          <t>20210421</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>122009</t>
+          <t>153323</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11316801</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>31900</v>
+          <t>74288122</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>63200</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>블루메베이글</t>
+          <t>아시아나항공(직판)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>181455216</t>
+          <t>50104441</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3169,12 +3648,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>20210710</t>
+          <t>20210423</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210511</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3186,41 +3670,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20210719</t>
+          <t>20210409</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>160321</t>
+          <t>154514</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>22859536</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>159980</v>
+          <t>55732768</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>800000</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>우정사업본부(우체국)</t>
+          <t>제주활어수산매장</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>83790910</t>
+          <t>22669570</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3230,12 +3720,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>20210720</t>
+          <t>20210410</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210511</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -3247,41 +3742,47 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>20210719</t>
+          <t>20210401</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>141544</t>
+          <t>185441</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>96238829</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>972000</v>
+          <t>87420937</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>14900</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>제주에말하다제이엔에스</t>
+          <t>제주제라진통닭</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>177804332</t>
+          <t>171020659</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3291,58 +3792,69 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>20210720</t>
+          <t>20210402</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210511</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>400907******0182</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20210801</t>
+          <t>20210330</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>132007</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>71791738</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>2800</v>
+          <t>13115958</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>18900</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>한국공항공사제주지역본부</t>
+          <t>(주)스타벅스커피코리아</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>83832366</t>
+          <t>38021493</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3352,58 +3864,69 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20210331</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>20210911</t>
+          <t>20210511</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>400907******0182</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>20210802</t>
+          <t>20210330</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>101741</t>
+          <t>124727</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>55240968</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>16400</v>
+          <t>11566990</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>51000</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>투섬 제주오라점</t>
+          <t>신설오름</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>161576363</t>
+          <t>32093456</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3413,58 +3936,69 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>20210803</t>
+          <t>20210331</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>20210911</t>
+          <t>20210511</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20210119</t>
+          <t>20210323</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>121209</t>
+          <t>130623</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>58274534</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>21500</v>
+          <t>66908897</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>138000</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>긴자료코제주시점</t>
+          <t>성읍탐라식육점식당</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>181399656</t>
+          <t>34834074</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3474,58 +4008,69 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>20210120</t>
+          <t>20210324</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>20210211</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>20210607</t>
+          <t>20210318</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>104634</t>
+          <t>142434</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>24230020</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>26500</v>
+          <t>32696466</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>840000</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>한국교통안전공단 제주검사소＿２）</t>
+          <t>글래드 호텔앤리조트(주) 메종 글래드 제주</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>180026783</t>
+          <t>18100035</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3535,58 +4080,69 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>20210625</t>
+          <t>20210401</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>20210711</t>
+          <t>20210511</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20210614</t>
+          <t>20210318</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>180629</t>
+          <t>100556</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>71813254</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>512800</v>
+          <t>66530207</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>(주)진에어</t>
+          <t>GS25제주난타파크점</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>128444517</t>
+          <t>162845670</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3596,58 +4152,69 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>20210616</t>
+          <t>20210319</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>20210711</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>20210624</t>
+          <t>20210317</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>094724</t>
+          <t>175016</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>10273372</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>19600</v>
+          <t>63073441</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96000</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>이니시스_2 도장파）</t>
+          <t>편리한주유소</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>172508323</t>
+          <t>113889817</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3657,58 +4224,69 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>20210625</t>
+          <t>20210318</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>20210711</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>20210626</t>
+          <t>20210317</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>181735</t>
+          <t>083626</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>65449154</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>12900</v>
+          <t>09199912</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3400</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>제주제라진통닭</t>
+          <t>GS25이도오복점</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>171020659</t>
+          <t>175812696</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3718,58 +4296,69 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>20210627</t>
+          <t>20210318</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>20210711</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>20210629</t>
+          <t>20210315</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>111956</t>
+          <t>180215</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>15143678</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>35700</v>
+          <t>43370275</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>주식회사 제주피자헛 본점</t>
+          <t>주식회사 아성다이소</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>171458686</t>
+          <t>123121251</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3779,58 +4368,69 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>20210630</t>
+          <t>20210316</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>20210701</t>
+          <t>20210315</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>105920</t>
+          <t>172526</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>87999758</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>110200</v>
+          <t>18509607</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>35800</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>(주)진에어</t>
+          <t>뽕글랑</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>128444517</t>
+          <t>144859588</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3840,58 +4440,69 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>20210705</t>
+          <t>20210316</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20210701</t>
+          <t>20210314</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>105706</t>
+          <t>222547</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>33020320</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>77200</v>
+          <t>21483837</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>412000</t>
+        </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>(주)진에어</t>
+          <t>시간여행</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>128444517</t>
+          <t>179385483</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3901,58 +4512,69 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>20210705</t>
+          <t>20210315</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>20210709</t>
+          <t>20210314</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>162302</t>
+          <t>000548</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>64188413</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>700</v>
+          <t>62440819</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>300000</t>
+        </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>법원행정처_4 210709210149002584</t>
+          <t>(주) 피엠씨프러덕션</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>173686263</t>
+          <t>162770813</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3962,119 +4584,141 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>20210710</t>
+          <t>20210315</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>20210712</t>
+          <t>20210313</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>163441</t>
+          <t>211848</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>50785284</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>-67300</v>
+          <t>49883264</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>네이버파이낸셜(주) 네이버</t>
+          <t>CU(씨유)제주공항국내선점</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>163072581</t>
+          <t>176325327</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>20210715</t>
+          <t>20210315</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>20210411</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>20210715</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>20210712</t>
+          <t>20210311</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>163441</t>
+          <t>163611</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>50785284</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>67300</v>
+          <t>23486431</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>110000</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>네이버파이낸셜(주) 네이버</t>
+          <t>주식회사 숙성도</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>163072581</t>
+          <t>177877523</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4084,58 +4728,69 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>20210713</t>
+          <t>20210312</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>20210720</t>
+          <t>20210309</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>123426</t>
+          <t>123553</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>51888825</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>49600</v>
+          <t>24171435</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>311000</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>경성함바그앤버거스캔들제주점</t>
+          <t>빽풍</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>181058056</t>
+          <t>160544088</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4145,58 +4800,69 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>20210721</t>
+          <t>20210310</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>20210720</t>
+          <t>20210307</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>113124</t>
+          <t>142247</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>05042293</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>32100</v>
+          <t>68269126</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>인터넷상거래 알파(주)</t>
+          <t>Curve coffee</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>22133777</t>
+          <t>181298905</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4206,58 +4872,69 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>20210721</t>
+          <t>20210308</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>20210720</t>
+          <t>20210302</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>084925</t>
+          <t>134949</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>70967034</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>16100</v>
+          <t>70668797</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>600000</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>네이버파이낸셜(주) 네이버</t>
+          <t>(주) 피엠씨프러덕션</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>163072581</t>
+          <t>162770813</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4267,58 +4944,69 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>20210721</t>
+          <t>20210303</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20210215</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>150229</t>
+          <t>152254</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>38391921</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>16800</v>
+          <t>62220945</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>12000</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>폴바셋 제주아라DT점</t>
+          <t>맥씨앤지 (MAC C &amp; G)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>181916052</t>
+          <t>82124499</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4328,58 +5016,69 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>20210724</t>
+          <t>20210216</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t>20210311</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>20210730</t>
+          <t>20210204</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>123048</t>
+          <t>125845</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>17622312</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>14300</v>
+          <t>05812022</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>180000</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>스탠스커피</t>
+          <t>곱은과일</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>183560730</t>
+          <t>161185700</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4389,58 +5088,69 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>20210731</t>
+          <t>20210205</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20210911</t>
+          <t>20210311</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>400907******0141</t>
+          <t>400907******0075</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>20210805</t>
+          <t>20210204</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>154343</t>
+          <t>123026</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>82192644</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>10740</v>
+          <t>22851982</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>17000</t>
+        </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>우정사업본부(우체국)</t>
+          <t>한라명동</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>83793015</t>
+          <t>152985123</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4450,12 +5160,17 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>20210807</t>
+          <t>20210205</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>20210911</t>
+          <t>20210311</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4467,41 +5182,47 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>20210520</t>
+          <t>20210201</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>191602</t>
+          <t>160355</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>97924022</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>20500</v>
+          <t>21141780</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>6948000</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>픽스커피</t>
+          <t>제주에말하다제이엔에스</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>159201215</t>
+          <t>177804332</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4511,12 +5232,17 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>20210521</t>
+          <t>20210202</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>20210611</t>
+          <t>20210311</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4528,41 +5254,47 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>20210524</t>
+          <t>20210121</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>114925</t>
+          <t>152148</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>76618955</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>567900</v>
+          <t>86293317</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>5100</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>(주)티웨이항공</t>
+          <t>GS25제주난타파크점</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>132931425</t>
+          <t>162845670</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4572,12 +5304,17 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>20210526</t>
+          <t>20210122</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>20210611</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4589,56 +5326,67 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>20210525</t>
+          <t>20210121</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>141918</t>
+          <t>150001</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>30215113</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>-58200</v>
+          <t>82115926</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>254000</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>에어부산(주) 여객</t>
+          <t>(주) 피엠씨프러덕션</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>123138151</t>
+          <t>162770813</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>20210604</t>
+          <t>20210122</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>20210604</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4650,41 +5398,47 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20210721</t>
+          <t>20210121</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>140517</t>
+          <t>145926</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>85820316</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>174400</v>
+          <t>92959351</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>480000</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>(주)진에어</t>
+          <t>(주) 피엠씨프러덕션</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>128444517</t>
+          <t>162770813</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4694,12 +5448,17 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20210122</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4711,41 +5470,47 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>20210721</t>
+          <t>20210121</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>135750</t>
+          <t>141127</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>23369990</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>156400</v>
+          <t>74407504</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>263000</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>(주)진에어</t>
+          <t>애담한우</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>128444517</t>
+          <t>179352163</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4755,73 +5520,1385 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>20210723</t>
+          <t>20210122</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>20210811</t>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>191828</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>48588613</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>9300</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>써브웨이제주시청점</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>170575152</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>20210812</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>20210911</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>20210720</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>113124</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>05042293</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>32100</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>인터넷상거래 알파(주)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>22133777</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>20210721</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>20210720</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>084925</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>70967034</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>16100</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>네이버파이낸셜(주) 네이버</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>163072581</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>20210721</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>20210716</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>171245</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>50818695</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>700</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>법원행정처_4 인터넷등기소</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>173686263</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>20210717</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>20210712</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>163441</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>50785284</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>-67300</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>네이버파이낸셜(주) 네이버</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>163072581</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>20210715</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>20210715</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>20210712</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>163441</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>50785284</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>67300</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>네이버파이낸셜(주) 네이버</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>163072581</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>20210713</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>20210709</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>162832</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>60843459</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>26500</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>한국교통안전공단 제주검사소＿２）</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>180026783</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>20210803</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>20210911</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>20210701</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>105920</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>87999758</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-89200</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>(주)진에어</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>128444517</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>20210818</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>20210818</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>400907******0182</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20210223</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>124650</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>24716633</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>17500</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>하비마카롱</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>167291446</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>20210224</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>20210311</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>20210629</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>111956</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>15143678</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>35700</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>주식회사 제주피자헛 본점</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>171458686</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>20210630</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>20210626</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>181735</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>65449154</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>12900</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>제주제라진통닭</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>171020659</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>20210627</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>20210624</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>094724</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>10273372</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>19600</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>이니시스_2 도장파）</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>172508323</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>20210625</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>20210614</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>180629</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>71813254</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>(주)진에어</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>128444517</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>20210616</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>20210711</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>400907******0141</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>20210310</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>115640</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>39031661</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21500</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>아베베베이커리</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>176861565</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>20210311</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>20210411</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
           <t>400907******0075</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>20210803</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>144840</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>91189352</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>430000</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>(주) 피엠씨프러덕션</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>162770813</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>20210804</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>090935</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>01487384</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>신한포장 (주)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>161426350</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>20210812</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>20210911</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>400907******0075</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>20210811</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>090934</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>00201440</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>6500</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>우정사업본부(우체국)</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>83793015</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>20210812</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>20210911</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>400907******0075</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>20210525</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>141918</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>30215113</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-58200</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>에어부산(주) 여객</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>123138151</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>20210604</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>20210604</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>400907******0075</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>20210524</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>114925</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>76618955</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>567900</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>(주)티웨이항공</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>132931425</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>20210526</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>400907******0075</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>20210520</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>191602</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>97924022</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>픽스커피</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>159201215</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>20210521</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>20210611</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -4836,7 +6913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5037,7 +7114,7 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12/29 업무추진활동비 미지급처리</t>
+          <t>12/29 업무용차량유지비 미지급처리</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -5063,12 +7140,12 @@
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>10000</v>
+        <v>7200</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>743000</v>
+        <v>1026930</v>
       </c>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
@@ -5082,7 +7159,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20210108-0005</t>
+          <t>20210108-0015</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -5094,7 +7171,7 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12/29 업무용차량유지비 미지급처리</t>
+          <t>미지급비용 입금</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -5120,12 +7197,12 @@
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>7200</v>
+        <v>9388100</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>1026930</v>
+        <v>10415030</v>
       </c>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
@@ -5139,19 +7216,19 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20210108-0015</t>
+          <t>20210112-0014</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021.01.08</t>
+          <t>2021.01.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>미지급비용 입금</t>
+          <t>1/12 업무추진활동비 미지급처리</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -5177,12 +7254,12 @@
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>9388100</v>
+        <v>27000</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>10415030</v>
+        <v>2986760</v>
       </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
@@ -5310,19 +7387,19 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20210607-0045</t>
+          <t>20210223-0035</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021.06.07</t>
+          <t>2021.02.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5/28 우편발송료 미지급처리</t>
+          <t>2/23 업무추진활동비 미지급처리</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -5348,12 +7425,12 @@
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>33880</v>
+        <v>40000</v>
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>7417700</v>
+        <v>10542630</v>
       </c>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
@@ -5367,19 +7444,19 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>20210616-0003</t>
+          <t>20210607-0045</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021.06.16</t>
+          <t>2021.06.07</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5/24 4개 시도회 임위원 친선 단합대회 관련 비용 미지급처리</t>
+          <t>5/28 우편발송료 미지급처리</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -5405,12 +7482,12 @@
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>504800</v>
+        <v>33880</v>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>-4032600</v>
+        <v>7417700</v>
       </c>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
@@ -5462,12 +7539,12 @@
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>63100</v>
+        <v>17200</v>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>-3780200</v>
+        <v>-4537400</v>
       </c>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
@@ -5493,7 +7570,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5/25 4개 시도회 임위원 친선 단합대회 관련 비용 미지급처리</t>
+          <t>5/24 4개 시도회 임위원 친선 단합대회 관련 비용 미지급처리</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -5519,12 +7596,12 @@
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>53200</v>
+        <v>504800</v>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>-3760200</v>
+        <v>-4032600</v>
       </c>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
@@ -5550,7 +7627,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6/2 4개 시도회 임위원 친선 단합대회 관련 비용 미지급처리</t>
+          <t>5/24 4개 시도회 임위원 친선 단합대회 관련 비용 미지급처리</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -5576,12 +7653,12 @@
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>-48200</v>
+        <v>63100</v>
       </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>-3724100</v>
+        <v>-3780200</v>
       </c>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
@@ -5595,19 +7672,19 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20210722-0088</t>
+          <t>20210616-0003</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021.07.22</t>
+          <t>2021.06.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6/14 제주도회-전북도회 임·위원 교류회 참가 관련 항공비 미지급처리</t>
+          <t>5/25 4개 시도회 임위원 친선 단합대회 관련 비용 미지급처리</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -5633,12 +7710,12 @@
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>65100</v>
+        <v>53200</v>
       </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>2832160</v>
+        <v>-3760200</v>
       </c>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
@@ -5652,19 +7729,19 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20210722-0088</t>
+          <t>20210616-0003</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021.07.22</t>
+          <t>2021.06.16</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>6/14 제주도회-전북도회 임·위원 교류회 참가 관련 항공비 미지급처리</t>
+          <t>6/2 4개 시도회 임위원 친선 단합대회 관련 비용 미지급처리</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -5690,16 +7767,358 @@
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>447700</v>
+        <v>-48200</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>3279860</v>
+        <v>-3724100</v>
       </c>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20210722-0088</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2021.07.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6/14 제주도회-전북도회 임·위원 교류회 참가 관련 항공비 미지급처리</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>제주도회</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>65100</v>
+      </c>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="n">
+        <v>2832160</v>
+      </c>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20210722-0088</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2021.07.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6/14 제주도회-전북도회 임·위원 교류회 참가 관련 항공비 미지급처리</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>제주도회</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>447700</v>
+      </c>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="n">
+        <v>3279860</v>
+      </c>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20210830-0033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2021.08.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8/25 업무추진활동비 미지급처리</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>제주도회</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>8800</v>
+      </c>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="n">
+        <v>1245010</v>
+      </c>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20210907-0058</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2021.09.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>09/07 우편발송료 미지급처리</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>제주도회</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>47060</v>
+      </c>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="n">
+        <v>2123790</v>
+      </c>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20210910-0025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2021.09.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9/9 회원관련사업추진비 미지급처리</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>제주도회</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>36100</v>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="n">
+        <v>2796330</v>
+      </c>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20210910-0046</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2021.09.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9/10 우편발송료 미지급처리</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>제주도회</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>47850</v>
+      </c>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="n">
+        <v>2994180</v>
+      </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr">
         <is>
           <t>대</t>
         </is>
